--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3213272.903430639</v>
+        <v>3210896.276483273</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>296.8737676075356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>29.71759195433624</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>77.27614072340589</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>82.78267808229644</v>
       </c>
       <c r="D5" t="n">
-        <v>283.0536745288046</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -914,7 +914,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>14.29880131109869</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,10 +1114,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>242.9106186991725</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.9430992003371</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>215.1445980039601</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>43.38105623675311</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>31.10811072719287</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596507</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>173.6813593090546</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>14.92158678358435</v>
       </c>
       <c r="G16" t="n">
-        <v>120.1447214650588</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>133.605923711194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>40.53421095546916</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2287,10 +2287,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.63412424768211</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>55.5207962406042</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>92.58181139165723</v>
       </c>
     </row>
     <row r="32">
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>48.85497112745768</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>51.36569740310337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>132.6315337216688</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>141.4513012076585</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,10 +4141,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847235</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.227517577121</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>826.8892667831767</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4395,13 +4395,13 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057903</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>299.2648838844854</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.9684409159571</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>957.2304598751772</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1344.515588472122</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1676.586023648284</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.9231348479808</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="C4" t="n">
-        <v>644.9053651971361</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>297.2899590611446</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4516,22 +4516,22 @@
         <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1439.817372234359</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1439.817372234359</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1185.132884028472</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>895.7157139915109</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="X4" t="n">
-        <v>895.7157139915109</v>
+        <v>699.7310030349145</v>
       </c>
       <c r="Y4" t="n">
-        <v>674.9231348479808</v>
+        <v>478.9384238913843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1432.831501090107</v>
+        <v>909.6965460670935</v>
       </c>
       <c r="C5" t="n">
-        <v>1063.868984149696</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="D5" t="n">
-        <v>777.9561815953474</v>
+        <v>826.0776793172992</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>366.9702768057398</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y5" t="n">
-        <v>1819.431341154229</v>
+        <v>1296.296386131215</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,40 +4632,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
         <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.0883979303312</v>
+        <v>383.7931243196347</v>
       </c>
       <c r="C7" t="n">
-        <v>325.0883979303312</v>
+        <v>383.7931243196347</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>233.6764849072989</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>233.6764849072989</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>825.1371474485136</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426267</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="W7" t="n">
-        <v>325.0883979303312</v>
+        <v>793.4311400478917</v>
       </c>
       <c r="X7" t="n">
-        <v>325.0883979303312</v>
+        <v>565.4415891498744</v>
       </c>
       <c r="Y7" t="n">
-        <v>325.0883979303312</v>
+        <v>565.4415891498744</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2361.386702945269</v>
+        <v>1445.96558289315</v>
       </c>
       <c r="C8" t="n">
-        <v>1992.424186004858</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>1077.003065952738</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>691.2148133544936</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>684.2693126052901</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>268.564562329579</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4841,13 +4841,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N9" t="n">
         <v>1843.432194560477</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657491</v>
+        <v>349.6600800990966</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378422</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255065</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037536</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959889</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="11">
@@ -5018,70 +5018,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>738.7889117913855</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417938</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>558.0193492433381</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C13" t="n">
-        <v>558.0193492433381</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2021.626829013775</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1732.551602357973</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1477.867114152086</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1188.449944115125</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>960.4603932171079</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.6678140735778</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,37 +5288,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>740.5562989961527</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416599</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.829365488567</v>
+        <v>734.6461798836023</v>
       </c>
       <c r="C16" t="n">
-        <v>883.8931825606599</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="D16" t="n">
-        <v>733.7765431483241</v>
+        <v>565.7099969556954</v>
       </c>
       <c r="E16" t="n">
-        <v>585.863449565931</v>
+        <v>417.7969033733023</v>
       </c>
       <c r="F16" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1455.270409462336</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1234.477830318806</v>
+        <v>916.294644713842</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>740.5562989961525</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1965.532750177311</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5966,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,19 +6008,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2436.221543936137</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1420.189824692392</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,16 +6783,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2223.769289033212</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>814.4194208819168</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>664.3027814695811</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>516.389687887188</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6944,13 +6944,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="38">
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>849.3843576263199</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C40" t="n">
-        <v>680.448174698413</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D40" t="n">
-        <v>530.3315352860773</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E40" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2312.991837396757</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2312.991837396757</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>2023.916610740955</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1769.232122535068</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1479.814952498107</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1251.82540160009</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y40" t="n">
-        <v>1031.03282245656</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7412,7 +7412,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,13 +7491,13 @@
         <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N42" t="n">
         <v>1964.511902868375</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>530.3315352860773</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>382.4184417036842</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>302.45403664168</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>160.7422054838781</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.955613488307165</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8070,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199.7516311504068</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>231.2582814363241</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>186.5911984019046</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>240.4465442417437</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471573</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>63.36835372228657</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>43.72409101823362</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>130.4994612393469</v>
       </c>
       <c r="G16" t="n">
-        <v>45.37941682721006</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>38.13892827624207</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856552</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.00954930701832</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>105.8997516911</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>32.15184655856254</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>55.74112246243957</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.85445046951749</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>118.3918499711702</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.6605885985412</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>48.39475227997582</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>84.25835418137865</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>16.31315520054598</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>84.77391660561949</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,10 +26029,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>15.00954930701842</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>712352.7143788788</v>
+        <v>712352.7143788787</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>712352.7143788787</v>
+        <v>712352.7143788788</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="C2" t="n">
-        <v>718411.5486312482</v>
+        <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
         <v>718411.5486312483</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="J2" t="n">
+        <v>706253.274728755</v>
+      </c>
+      <c r="K2" t="n">
         <v>706253.2747287556</v>
       </c>
-      <c r="I2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>706253.274728755</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="M2" t="n">
         <v>706253.2747287554</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287554</v>
       </c>
       <c r="O2" t="n">
-        <v>706253.2747287549</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.7268316249</v>
@@ -26427,34 +26427,34 @@
         <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.424496707343</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707383</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.424496707376</v>
-      </c>
       <c r="H4" t="n">
-        <v>6897.424496707401</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707369</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707366</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="M4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707352</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707345</v>
+        <v>6897.424496707383</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707363</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-621187.7342161414</v>
+        <v>-621187.7342161416</v>
       </c>
       <c r="C6" t="n">
-        <v>493564.0493597785</v>
+        <v>493564.0493597782</v>
       </c>
       <c r="D6" t="n">
         <v>493564.0493597786</v>
       </c>
       <c r="E6" t="n">
-        <v>90747.87878359492</v>
+        <v>90713.14085815861</v>
       </c>
       <c r="F6" t="n">
-        <v>598233.320408141</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="G6" t="n">
-        <v>598233.3204081407</v>
+        <v>598198.5824827058</v>
       </c>
       <c r="H6" t="n">
-        <v>598233.3204081412</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="I6" t="n">
-        <v>598233.3204081409</v>
+        <v>598198.5824827054</v>
       </c>
       <c r="J6" t="n">
-        <v>430628.1425981585</v>
+        <v>430593.4046727222</v>
       </c>
       <c r="K6" t="n">
-        <v>598233.3204081405</v>
+        <v>598198.5824827055</v>
       </c>
       <c r="L6" t="n">
-        <v>598233.3204081411</v>
+        <v>598198.5824827049</v>
       </c>
       <c r="M6" t="n">
-        <v>465626.0266792141</v>
+        <v>465591.2887537783</v>
       </c>
       <c r="N6" t="n">
-        <v>598233.3204081408</v>
+        <v>598198.5824827052</v>
       </c>
       <c r="O6" t="n">
-        <v>598233.3204081404</v>
+        <v>598198.582482705</v>
       </c>
       <c r="P6" t="n">
-        <v>598233.320408141</v>
+        <v>598198.5824827055</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,16 +26790,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241351</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.7844173726981</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>89.36417104851796</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>137.5292291442916</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>69.15782192316328</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27588,19 +27588,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>282.4902136887111</v>
       </c>
       <c r="D5" t="n">
-        <v>71.62936709187835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>131.1222467118326</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,10 +27834,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.61237963741846</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.7907424631435</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>85.87395455844529</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>123.8657648618747</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>115.3258519193763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,34 +31838,34 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>671.2522281007809</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.6580975439395</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>463.4318227833011</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,25 +32783,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>242.2322097768141</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>271.1474903386692</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,13 +33272,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>528.6300513467554</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,19 +33503,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>193.964997009853</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
@@ -33731,28 +33731,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>191.332301678856</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>167.4835451665588</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,7 +34211,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,7 +34220,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>578.1083652167725</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34445,25 +34445,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>261.5336801130329</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34705,7 +34705,7 @@
         <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
@@ -34778,7 +34778,7 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>187.543109731792</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
@@ -34790,16 +34790,16 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>449.431160273939</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>622.455381029198</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>522.0158803980277</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>538.1269048795938</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291977</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>528.6559836563365</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>320.8355783388566</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,25 +36431,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>128.5512458942248</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,13 +36920,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37151,19 +37151,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>59.99058959552271</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,28 +37379,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>59.99058959552271</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>25.34951124454049</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,7 +37868,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>446.7666531334392</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38093,25 +38093,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>134.6960534463662</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
